--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_13.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_13.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02406597137451172</v>
+        <v>0.03734087944030762</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006670951843261719</v>
+        <v>0.000614166259765625</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007187843322753906</v>
+        <v>0.01256179809570312</v>
       </c>
     </row>
     <row r="8">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.5479950533407526</v>
+        <v>0.5478810822230649</v>
       </c>
     </row>
     <row r="130">
@@ -1364,23 +1364,23 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-24</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1390,90 +1390,100 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.04322314262390137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0608670711517334</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="M136" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
+      <c r="N136" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_13.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_13.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03734087944030762</v>
+        <v>0.0009002685546875</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000614166259765625</v>
+        <v>0.0005769729614257812</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01256179809570312</v>
+        <v>0.009279966354370117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 2), (0, 3), (1, 2), (1, 0), (1, 1), (1, 3), (2, 2), (2, 0), (2, 1), (2, 3), (3, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 2], [0, 3], [1, 2], [1, 0], [1, 1], [1, 3], [2, 2], [2, 0], [2, 1], [2, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0608670711517334</v>
+        <v>0.02071595191955566</v>
       </c>
     </row>
     <row r="136">
